--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -82,12 +82,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -97,10 +97,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>hope</t>
@@ -942,25 +942,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6826086956521739</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -968,25 +968,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6666666666666666</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1072,25 +1072,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5531914893617021</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L19">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1098,25 +1098,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5441176470588235</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="10:17">
